--- a/Задание8.xlsx
+++ b/Задание8.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaronLeCringe\Desktop\статистика\HuSoIcaSni\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -72,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,25 +127,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,9 +175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,10 +209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,21 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -478,13 +456,13 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>25.753682969946961</v>
+        <v>25.75368296994696</v>
       </c>
       <c r="F2">
-        <v>11.972534651943331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11.97253465194333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -498,13 +476,13 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>28.872127283441369</v>
+        <v>28.87212728344137</v>
       </c>
       <c r="F3">
-        <v>3.1147402980048762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.114740298004876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,13 +496,13 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>29.911608721272831</v>
+        <v>29.91160872127283</v>
       </c>
       <c r="F4">
-        <v>3.5109396087973082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.510939608797308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -538,13 +516,13 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <v>34.069534472598697</v>
+        <v>34.0695344725987</v>
       </c>
       <c r="F5">
         <v>2.658472935432274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -558,13 +536,13 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>36.148497348261643</v>
+        <v>36.14849734826164</v>
       </c>
       <c r="F6">
-        <v>9.6287566293458937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.628756629345894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -578,13 +556,13 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>46.543311726576313</v>
+        <v>46.54331172657631</v>
       </c>
       <c r="F7">
-        <v>3.4295816146140292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.429581614614029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -598,51 +576,51 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <v>50.701237477902183</v>
+        <v>50.70123747790218</v>
       </c>
       <c r="F8">
         <v>1.402474955804365</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1731.6326530612239</v>
+        <v>1731.632653061224</v>
       </c>
       <c r="D9">
-        <v>78.857142857142861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78.85714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>41.612890467512877</v>
+        <v>41.61289046751288</v>
       </c>
       <c r="D10">
-        <v>8.8801544388114593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.880154438811459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>359.99999999999949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>359.9999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.97421339940756824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.9742133994075682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,52 +628,52 @@
         <v>0.2078962875662935</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.94909174758525283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.9490917475852528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>93.215903371917634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93.21590337191763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5.6202710665880904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.62027106658809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2.3707110888060758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.370711088806076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>2.1532860545634532E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.02153286054563453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>9.6548383400198698</v>
+        <v>9.65483834001987</v>
       </c>
     </row>
   </sheetData>
